--- a/historical_report/separate report/dpct1001_analysis/dpct1001.xlsx
+++ b/historical_report/separate report/dpct1001_analysis/dpct1001.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abc/Library/Mobile Documents/com~apple~CloudDocs/SSE/final project/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCL\jupyter\CTA-oneAPI\historical_report\separate report\dpct1001_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0270A637-945F-6345-917F-F92F424159D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3AD70153-369E-AD48-BCD4-343570617307}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,27 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>DPCT1001</t>
-  </si>
-  <si>
-    <t>inversek2j</t>
-  </si>
-  <si>
-    <t>/inversek2j/dpcpp/main.dp.cpp</t>
   </si>
   <si>
     <t xml:space="preserve">The statement could not be removed.
 </t>
   </si>
   <si>
-    <t>cout &lt;&lt; "Something was wrong! Error code: " &lt;&lt; cudaStatus &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
@@ -92,13 +79,46 @@
   </si>
   <si>
     <t>free(dataT);</t>
+  </si>
+  <si>
+    <t>accept the DPCT proposal</t>
+  </si>
+  <si>
+    <t>warning_code</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>line_in_file</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>dpct_line</t>
+  </si>
+  <si>
+    <t>dpct_code</t>
+  </si>
+  <si>
+    <t>manual_line</t>
+  </si>
+  <si>
+    <t>manual_code</t>
+  </si>
+  <si>
+    <t>annotation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,12 +157,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,328 +480,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771CBC9-D0D3-CC47-BC4B-BDC60B06592D}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" customWidth="1"/>
+    <col min="6" max="6" width="8.61328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.84375" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.69140625" customWidth="1"/>
+    <col min="10" max="10" width="23.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>184</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" s="2">
+        <v>186</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>188</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>308</v>
-      </c>
-      <c r="E1">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>240</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>242</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>245</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>308</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>317</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="102">
-      <c r="A2" t="s">
+    <row r="5" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>184</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>186</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>188</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="102">
-      <c r="A3" t="s">
+    <row r="6" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>240</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>242</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>236</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>230</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="102">
-      <c r="A4" t="s">
+    <row r="7" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>255</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>257</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>251</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
-        <v>5</v>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>281</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>283</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>277</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="102">
-      <c r="A5" t="s">
+    <row r="9" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" s="1">
+        <v>327</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>329</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H9" s="1">
+        <v>318</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="102">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>234</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>230</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="102">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>255</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>257</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>251</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="102">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>281</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>283</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>277</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="102">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>327</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>329</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <v>318</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +968,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -968,20 +982,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F187F453-33C3-47A8-B7BF-175C1C47B621}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F187F453-33C3-47A8-B7BF-175C1C47B621}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="742903cd-b80a-47e3-8b40-5135074bb8ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3E663-57F5-474E-86D4-3E3C38609800}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3284489-1F84-460C-B16F-4EEC9DBB02A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3284489-1F84-460C-B16F-4EEC9DBB02A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3E663-57F5-474E-86D4-3E3C38609800}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>